--- a/Zil/Zil/zil.xlsx
+++ b/Zil/Zil/zil.xlsx
@@ -221,12 +221,12 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="91.42"/>
   </cols>
   <sheetData>

--- a/Zil/Zil/zil.xlsx
+++ b/Zil/Zil/zil.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">der1</t>
   </si>
   <si>
-    <t xml:space="preserve">15.37</t>
+    <t xml:space="preserve">14.59</t>
   </si>
   <si>
     <t xml:space="preserve">10*3</t>
@@ -221,10 +221,10 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="91.42"/>

--- a/Zil/Zil/zil.xlsx
+++ b/Zil/Zil/zil.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">Notlar</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">der1</t>
   </si>
   <si>
-    <t xml:space="preserve">14.59</t>
+    <t xml:space="preserve">10.53</t>
   </si>
   <si>
     <t xml:space="preserve">10*3</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">der2</t>
   </si>
   <si>
-    <t xml:space="preserve">15.40</t>
+    <t xml:space="preserve">20.47</t>
   </si>
   <si>
     <t xml:space="preserve">12.00</t>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">der3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.48</t>
   </si>
   <si>
     <t xml:space="preserve">.</t>
@@ -224,7 +227,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="91.42"/>
@@ -309,45 +312,48 @@
       <c r="A4" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Zil/Zil/zil.xlsx
+++ b/Zil/Zil/zil.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t xml:space="preserve">Notlar</t>
   </si>
@@ -52,28 +52,31 @@
     <t xml:space="preserve">der1</t>
   </si>
   <si>
-    <t xml:space="preserve">10.53</t>
+    <t xml:space="preserve">11.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3*1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">der2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.47</t>
   </si>
   <si>
     <t xml:space="preserve">10*3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">der2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.47</t>
   </si>
   <si>
     <t xml:space="preserve">12.00</t>
@@ -227,7 +230,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="91.42"/>
@@ -293,67 +296,67 @@
         <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Zil/Zil/zil.xlsx
+++ b/Zil/Zil/zil.xlsx
@@ -73,10 +73,10 @@
     <t xml:space="preserve">der2</t>
   </si>
   <si>
-    <t xml:space="preserve">20.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10*3</t>
+    <t xml:space="preserve">11.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4*1</t>
   </si>
   <si>
     <t xml:space="preserve">12.00</t>
@@ -227,10 +227,10 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="91.42"/>
@@ -295,7 +295,7 @@
       <c r="B3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
